--- a/values.xlsx
+++ b/values.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MultiLinearReg" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Random Forest" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LightGBM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="XGBoost" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="MultiLinearReg" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,6 +460,752 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>31.52655992047737</v>
+      </c>
+      <c r="B2" t="n">
+        <v>24.10965023401405</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01921874507454735</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1303161232238976</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15.3682109792795</v>
+      </c>
+      <c r="B3" t="n">
+        <v>27.03247771200676</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.150959551038571</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06847114941245132</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>17.45192526489776</v>
+      </c>
+      <c r="B4" t="n">
+        <v>26.58067076805167</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1177628211666229</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1138621904187686</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>22.15900919323492</v>
+      </c>
+      <c r="B5" t="n">
+        <v>31.32835178650641</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0505386129846102</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03553634545774612</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>15.62601911394107</v>
+      </c>
+      <c r="B6" t="n">
+        <v>22.6685344220403</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1990156372234308</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1663423157699315</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31.86840357211945</v>
+      </c>
+      <c r="B7" t="n">
+        <v>27.48488167928549</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.154111714199555</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1793319492040021</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31.8367556215063</v>
+      </c>
+      <c r="B8" t="n">
+        <v>42.48287578225442</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03603500940587259</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.08367101669424926</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17.05125019932663</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13.9901309524147</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05363242968774373</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1474114385944217</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28.01403730255483</v>
+      </c>
+      <c r="B10" t="n">
+        <v>30.49019530482515</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1456828125214079</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.02120333179103113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34.05274067512924</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21.78450734223462</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07304266669763851</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.05385413943350067</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>32.04409775187688</v>
+      </c>
+      <c r="B12" t="n">
+        <v>31.43844410198961</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31.43558710364927</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16.63364054249345</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>25.60436031760129</v>
+      </c>
+      <c r="B14" t="n">
+        <v>15.5130546963113</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>19.87208611197401</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10.86279041034013</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34.57519285780624</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20.58637004051619</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15.81565037885239</v>
+      </c>
+      <c r="B17" t="n">
+        <v>18.09732026279982</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>30.58103372982652</v>
+      </c>
+      <c r="B18" t="n">
+        <v>38.56996753822476</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>28.14187539796513</v>
+      </c>
+      <c r="B19" t="n">
+        <v>25.34345182207639</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18.50308035745426</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18.19696732825621</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>22.7665222226228</v>
+      </c>
+      <c r="B21" t="n">
+        <v>34.95456732848713</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33.89878888943554</v>
+      </c>
+      <c r="B22" t="n">
+        <v>26.49073134999745</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23.14035082939316</v>
+      </c>
+      <c r="B23" t="n">
+        <v>39.07288333425414</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28.00763253962518</v>
+      </c>
+      <c r="B24" t="n">
+        <v>25.57205992083115</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26.35002923284248</v>
+      </c>
+      <c r="B25" t="n">
+        <v>33.66846815862111</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36.25645410090477</v>
+      </c>
+      <c r="B26" t="n">
+        <v>15.33177959996883</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.74793095187761</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25.33647407485399</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>32.06033746953615</v>
+      </c>
+      <c r="B28" t="n">
+        <v>28.1727678578821</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38.36669080747979</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20.48752996076718</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>19.68755019892337</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28.92832698441451</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>23.45942568542904</v>
+      </c>
+      <c r="B31" t="n">
+        <v>32.73643928615934</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>27.9555281748052</v>
+      </c>
+      <c r="B32" t="n">
+        <v>27.59698065748803</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>21.01062023860357</v>
+      </c>
+      <c r="B33" t="n">
+        <v>37.70162599224126</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>19.64899365166277</v>
+      </c>
+      <c r="B34" t="n">
+        <v>23.61411584379128</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>17.94679603214187</v>
+      </c>
+      <c r="B35" t="n">
+        <v>19.861108928032</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Static Predicted</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Dynamic Predicted</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Static Feature Importance</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dynamic Feature Importance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31.52655992047737</v>
+      </c>
+      <c r="B2" t="n">
+        <v>24.10965023401405</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01921874507454735</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1303161232238976</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15.3682109792795</v>
+      </c>
+      <c r="B3" t="n">
+        <v>27.03247771200676</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.150959551038571</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06847114941245132</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>17.45192526489776</v>
+      </c>
+      <c r="B4" t="n">
+        <v>26.58067076805167</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1177628211666229</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1138621904187686</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>22.15900919323492</v>
+      </c>
+      <c r="B5" t="n">
+        <v>31.32835178650641</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0505386129846102</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03553634545774612</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>15.62601911394107</v>
+      </c>
+      <c r="B6" t="n">
+        <v>22.6685344220403</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1990156372234308</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1663423157699315</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31.86840357211945</v>
+      </c>
+      <c r="B7" t="n">
+        <v>27.48488167928549</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.154111714199555</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1793319492040021</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31.8367556215063</v>
+      </c>
+      <c r="B8" t="n">
+        <v>42.48287578225442</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03603500940587259</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.08367101669424926</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17.05125019932663</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13.9901309524147</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05363242968774373</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1474114385944217</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28.01403730255483</v>
+      </c>
+      <c r="B10" t="n">
+        <v>30.49019530482515</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1456828125214079</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.02120333179103113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34.05274067512924</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21.78450734223462</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07304266669763851</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.05385413943350067</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>32.04409775187688</v>
+      </c>
+      <c r="B12" t="n">
+        <v>31.43844410198961</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31.43558710364927</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16.63364054249345</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>25.60436031760129</v>
+      </c>
+      <c r="B14" t="n">
+        <v>15.5130546963113</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>19.87208611197401</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10.86279041034013</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34.57519285780624</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20.58637004051619</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15.81565037885239</v>
+      </c>
+      <c r="B17" t="n">
+        <v>18.09732026279982</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>30.58103372982652</v>
+      </c>
+      <c r="B18" t="n">
+        <v>38.56996753822476</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>28.14187539796513</v>
+      </c>
+      <c r="B19" t="n">
+        <v>25.34345182207639</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18.50308035745426</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18.19696732825621</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>22.7665222226228</v>
+      </c>
+      <c r="B21" t="n">
+        <v>34.95456732848713</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33.89878888943554</v>
+      </c>
+      <c r="B22" t="n">
+        <v>26.49073134999745</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23.14035082939316</v>
+      </c>
+      <c r="B23" t="n">
+        <v>39.07288333425414</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28.00763253962518</v>
+      </c>
+      <c r="B24" t="n">
+        <v>25.57205992083115</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26.35002923284248</v>
+      </c>
+      <c r="B25" t="n">
+        <v>33.66846815862111</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36.25645410090477</v>
+      </c>
+      <c r="B26" t="n">
+        <v>15.33177959996883</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.74793095187761</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25.33647407485399</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>32.06033746953615</v>
+      </c>
+      <c r="B28" t="n">
+        <v>28.1727678578821</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38.36669080747979</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20.48752996076718</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>19.68755019892337</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28.92832698441451</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>23.45942568542904</v>
+      </c>
+      <c r="B31" t="n">
+        <v>32.73643928615934</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>27.9555281748052</v>
+      </c>
+      <c r="B32" t="n">
+        <v>27.59698065748803</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>21.01062023860357</v>
+      </c>
+      <c r="B33" t="n">
+        <v>37.70162599224126</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>19.64899365166277</v>
+      </c>
+      <c r="B34" t="n">
+        <v>23.61411584379128</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>17.94679603214187</v>
+      </c>
+      <c r="B35" t="n">
+        <v>19.861108928032</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Static Predicted</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Dynamic Predicted</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Static Feature Importance</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dynamic Feature Importance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>31.52461433410645</v>
       </c>
       <c r="B2" t="n">
@@ -602,8 +1351,6 @@
       <c r="B12" t="n">
         <v>40.80397796630859</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -612,8 +1359,6 @@
       <c r="B13" t="n">
         <v>19.21088409423828</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -622,8 +1367,6 @@
       <c r="B14" t="n">
         <v>23.64728164672852</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -632,8 +1375,6 @@
       <c r="B15" t="n">
         <v>7.908716201782227</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -642,8 +1383,6 @@
       <c r="B16" t="n">
         <v>15.91191864013672</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -652,8 +1391,6 @@
       <c r="B17" t="n">
         <v>11.21540260314941</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -662,8 +1399,6 @@
       <c r="B18" t="n">
         <v>38.26846694946289</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -672,8 +1407,6 @@
       <c r="B19" t="n">
         <v>23.65041542053223</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -682,8 +1415,6 @@
       <c r="B20" t="n">
         <v>19.99927520751953</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -692,8 +1423,6 @@
       <c r="B21" t="n">
         <v>40.87643432617188</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -702,8 +1431,6 @@
       <c r="B22" t="n">
         <v>31.87286949157715</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -712,8 +1439,6 @@
       <c r="B23" t="n">
         <v>32.75780868530273</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -722,8 +1447,6 @@
       <c r="B24" t="n">
         <v>34.98407363891602</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -732,8 +1455,6 @@
       <c r="B25" t="n">
         <v>32.06127166748047</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -742,8 +1463,6 @@
       <c r="B26" t="n">
         <v>16.69821357727051</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -752,8 +1471,6 @@
       <c r="B27" t="n">
         <v>24.25348472595215</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -762,8 +1479,6 @@
       <c r="B28" t="n">
         <v>25.00633239746094</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -772,8 +1487,6 @@
       <c r="B29" t="n">
         <v>22.06904602050781</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -782,8 +1495,6 @@
       <c r="B30" t="n">
         <v>21.7302417755127</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -792,8 +1503,6 @@
       <c r="B31" t="n">
         <v>28.71858024597168</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -802,8 +1511,6 @@
       <c r="B32" t="n">
         <v>26.11977767944336</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -812,8 +1519,6 @@
       <c r="B33" t="n">
         <v>26.48930168151855</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -822,8 +1527,6 @@
       <c r="B34" t="n">
         <v>18.82611846923828</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -831,6 +1534,425 @@
       </c>
       <c r="B35" t="n">
         <v>13.03802680969238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Static Predicted</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Dynamic Predicted</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Static Feature Importance</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dynamic Feature Importance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>22.83357042572371</v>
+      </c>
+      <c r="B2" t="n">
+        <v>41.98862198404228</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2873975814202982</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1012522047819083</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5.915414047646635</v>
+      </c>
+      <c r="B3" t="n">
+        <v>21.5552335780253</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1550219080329438</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08149775169875823</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22.58730154248104</v>
+      </c>
+      <c r="B4" t="n">
+        <v>21.76478641406208</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.000403258078883821</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.001308004330127564</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>19.45611998624259</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7.506077299894045</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.03493419061875401</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2750600808925614</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35.37962646987766</v>
+      </c>
+      <c r="B6" t="n">
+        <v>32.17300490563848</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1319246827455712</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2461128295349568</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>23.28574047720085</v>
+      </c>
+      <c r="B7" t="n">
+        <v>32.2295662042733</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02670351510947734</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07830518079197635</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>69.26349684145185</v>
+      </c>
+      <c r="B8" t="n">
+        <v>42.20704688596367</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1878315846486017</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05820569146497478</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-23.5487975562534</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.80334958391855</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.007029353025439145</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1574512330932913</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39.45970863071683</v>
+      </c>
+      <c r="B10" t="n">
+        <v>41.13259644761148</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02561666310911579</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0007760893543566397</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33.14372368525981</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24.70026639722623</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.143137263210915</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.093405708860571e-05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31.13628860824207</v>
+      </c>
+      <c r="B12" t="n">
+        <v>31.07575575286105</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>25.30977355492418</v>
+      </c>
+      <c r="B13" t="n">
+        <v>18.69649834443149</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>15.08943680313358</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13.24983611524616</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11.68641524258661</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-14.45961538298953</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>28.83564589063052</v>
+      </c>
+      <c r="B16" t="n">
+        <v>23.97738541819005</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>24.07899035950621</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16.68795544609104</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>29.03280306086073</v>
+      </c>
+      <c r="B18" t="n">
+        <v>44.78425957255787</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38.16182511354361</v>
+      </c>
+      <c r="B19" t="n">
+        <v>16.64494859099035</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16.11200671169928</v>
+      </c>
+      <c r="B20" t="n">
+        <v>16.08398072237092</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>28.51510419110381</v>
+      </c>
+      <c r="B21" t="n">
+        <v>39.02858585588346</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>32.4301130420226</v>
+      </c>
+      <c r="B22" t="n">
+        <v>26.69583925676412</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>24.14133395689012</v>
+      </c>
+      <c r="B23" t="n">
+        <v>51.68761911521524</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10.78852314174463</v>
+      </c>
+      <c r="B24" t="n">
+        <v>31.70506736513147</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>31.36502559375594</v>
+      </c>
+      <c r="B25" t="n">
+        <v>32.75160932038754</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>30.16074763108607</v>
+      </c>
+      <c r="B26" t="n">
+        <v>13.24113157378417</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24.65184059191077</v>
+      </c>
+      <c r="B27" t="n">
+        <v>19.31310725130174</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28.4431976140243</v>
+      </c>
+      <c r="B28" t="n">
+        <v>31.98951591883644</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36.90586252592408</v>
+      </c>
+      <c r="B29" t="n">
+        <v>42.2599329341875</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-55.9818633997568</v>
+      </c>
+      <c r="B30" t="n">
+        <v>13.76105835443537</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>25.77779645653031</v>
+      </c>
+      <c r="B31" t="n">
+        <v>49.25584488086916</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>19.03483293395498</v>
+      </c>
+      <c r="B32" t="n">
+        <v>37.74378754127717</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-5.245674140670516</v>
+      </c>
+      <c r="B33" t="n">
+        <v>35.02700034086363</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20.30418346106217</v>
+      </c>
+      <c r="B34" t="n">
+        <v>11.05622875130469</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>18.16055290388953</v>
+      </c>
+      <c r="B35" t="n">
+        <v>11.11905095735811</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
